--- a/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78EB4D6-713A-46B4-B63A-F90F174F33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E003AD0-06E1-4A2C-8EAF-2FC164339D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{385E1A98-EDC6-452D-91B5-3AE749634893}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C1A4BA-1F68-4A64-980A-6DEA2CFB4098}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,25 +80,25 @@
     <t>28,82%</t>
   </si>
   <si>
-    <t>34,45%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>34,42%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>68,42%</t>
   </si>
   <si>
-    <t>65,55%</t>
+    <t>65,44%</t>
   </si>
   <si>
     <t>71,18%</t>
@@ -116,19 +116,19 @@
     <t>65,58%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>27,3%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,169 +197,163 @@
     <t>32,49%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
   </si>
   <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>32,0%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>30,77%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>68,0%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>69,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
     <t>38,34%</t>
   </si>
   <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>39,53%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>60,47%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
   </si>
   <si>
     <t>39,36%</t>
@@ -368,31 +362,28 @@
     <t>37,12%</t>
   </si>
   <si>
-    <t>41,63%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>36,73%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
   </si>
   <si>
     <t>60,64%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>62,88%</t>
@@ -401,91 +392,85 @@
     <t>60,86%</t>
   </si>
   <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>63,27%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>43,68%</t>
   </si>
   <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
   </si>
   <si>
     <t>39,86%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>38,17%</t>
   </si>
   <si>
     <t>39,78%</t>
@@ -494,460 +479,457 @@
     <t>38,59%</t>
   </si>
   <si>
-    <t>40,97%</t>
+    <t>41,08%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>60,14%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>61,83%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>59,03%</t>
+    <t>58,92%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>36,44%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>63,56%</t>
   </si>
   <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>65,82%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
   </si>
   <si>
     <t>36,0%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>64,0%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>63,34%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825742D0-5729-41BB-A133-96C46F9E186E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0405C-D747-470A-882F-6F6ED230F96F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1668,7 @@
         <v>1207</v>
       </c>
       <c r="D8" s="7">
-        <v>1231033</v>
+        <v>1231032</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1737,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1945,7 +1927,7 @@
         <v>939</v>
       </c>
       <c r="D13" s="7">
-        <v>967378</v>
+        <v>967379</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1984,7 +1966,7 @@
         <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1981,13 @@
         <v>2309165</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2168</v>
@@ -2014,28 +1996,28 @@
         <v>2216507</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4443</v>
       </c>
       <c r="N14" s="7">
-        <v>4525672</v>
+        <v>4525671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2077,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2091,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A054FF-FCB8-425C-B239-263BDB5DC946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84A7DF0-B614-4CEA-A99A-335C3D434760}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2216,13 @@
         <v>373258</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>495</v>
@@ -2249,13 +2231,13 @@
         <v>528388</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>847</v>
@@ -2264,13 +2246,13 @@
         <v>901646</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2267,13 @@
         <v>600217</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>751</v>
@@ -2300,13 +2282,13 @@
         <v>808452</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1306</v>
@@ -2315,13 +2297,13 @@
         <v>1408670</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2371,13 @@
         <v>771537</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>638</v>
@@ -2404,13 +2386,13 @@
         <v>686104</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>1371</v>
@@ -2419,13 +2401,13 @@
         <v>1457641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2422,13 @@
         <v>1188901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>993</v>
@@ -2455,13 +2437,13 @@
         <v>1066804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>2113</v>
@@ -2470,13 +2452,13 @@
         <v>2255705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2526,13 @@
         <v>210516</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -2559,13 +2541,13 @@
         <v>199993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -2574,13 +2556,13 @@
         <v>410508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2577,13 @@
         <v>270665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -2610,13 +2592,13 @@
         <v>258638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>479</v>
@@ -2625,13 +2607,13 @@
         <v>529304</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,28 +2681,28 @@
         <v>1355311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>1312</v>
       </c>
       <c r="I13" s="7">
-        <v>1414485</v>
+        <v>1414484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>2589</v>
@@ -2729,13 +2711,13 @@
         <v>2769795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,16 +2729,16 @@
         <v>1921</v>
       </c>
       <c r="D14" s="7">
-        <v>2059784</v>
+        <v>2059783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>1977</v>
@@ -2765,13 +2747,13 @@
         <v>2133895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>3898</v>
@@ -2780,13 +2762,13 @@
         <v>4193679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2780,7 @@
         <v>3198</v>
       </c>
       <c r="D15" s="7">
-        <v>3415095</v>
+        <v>3415094</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2813,7 +2795,7 @@
         <v>3289</v>
       </c>
       <c r="I15" s="7">
-        <v>3548380</v>
+        <v>3548379</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2842,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36072E7-74F0-43AF-8D1D-35041B361FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C43E14-765F-4552-B490-5087682DB147}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2967,13 @@
         <v>274878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>302</v>
@@ -3000,13 +2982,13 @@
         <v>339184</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>575</v>
@@ -3015,13 +2997,13 @@
         <v>614063</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3018,13 @@
         <v>479469</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>588</v>
@@ -3051,13 +3033,13 @@
         <v>653170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1077</v>
@@ -3066,13 +3048,13 @@
         <v>1132638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3122,13 @@
         <v>720522</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>693</v>
@@ -3155,13 +3137,13 @@
         <v>728717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>1367</v>
@@ -3170,13 +3152,13 @@
         <v>1449239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3173,13 @@
         <v>1354596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>1215</v>
@@ -3206,13 +3188,13 @@
         <v>1259583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>2492</v>
@@ -3221,13 +3203,13 @@
         <v>2614179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3277,13 @@
         <v>220215</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>215</v>
@@ -3310,13 +3292,13 @@
         <v>226037</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>418</v>
@@ -3325,13 +3307,13 @@
         <v>446252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3328,13 @@
         <v>326671</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>311</v>
@@ -3361,13 +3343,13 @@
         <v>323103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>609</v>
@@ -3376,13 +3358,13 @@
         <v>649774</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3432,13 @@
         <v>1215615</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>1210</v>
@@ -3465,13 +3447,13 @@
         <v>1293939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>2360</v>
@@ -3480,13 +3462,13 @@
         <v>2509554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3483,13 @@
         <v>2160735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>2114</v>
@@ -3516,13 +3498,13 @@
         <v>2235855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>4178</v>
@@ -3531,13 +3513,13 @@
         <v>4396591</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8D66FF-812B-489A-9A22-44EF3ED13F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9890B-F769-4BB5-8E7D-1BA0FDC8874E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3718,13 @@
         <v>107197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -3751,13 +3733,13 @@
         <v>149732</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>372</v>
@@ -3766,13 +3748,13 @@
         <v>256929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3769,13 @@
         <v>434437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>1189</v>
@@ -3802,13 +3784,13 @@
         <v>686221</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1746</v>
@@ -3817,13 +3799,13 @@
         <v>1120657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,28 +3873,28 @@
         <v>355005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>529</v>
       </c>
       <c r="I7" s="7">
-        <v>529066</v>
+        <v>529065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3921,13 +3903,13 @@
         <v>884071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3924,13 @@
         <v>1807017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>2392</v>
@@ -3957,13 +3939,13 @@
         <v>1720455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>4056</v>
@@ -3972,13 +3954,13 @@
         <v>3527472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4028,13 @@
         <v>152025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>230</v>
@@ -4061,13 +4043,13 @@
         <v>170778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>377</v>
@@ -4076,13 +4058,13 @@
         <v>322802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4079,13 @@
         <v>521014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>772</v>
@@ -4112,13 +4094,13 @@
         <v>541668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1306</v>
@@ -4127,13 +4109,13 @@
         <v>1062683</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4183,13 @@
         <v>614227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>997</v>
@@ -4216,13 +4198,13 @@
         <v>849575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1606</v>
@@ -4231,13 +4213,13 @@
         <v>1463802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4231,16 @@
         <v>2755</v>
       </c>
       <c r="D14" s="7">
-        <v>2762467</v>
+        <v>2762468</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4353</v>
@@ -4267,13 +4249,13 @@
         <v>2948344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>7108</v>
@@ -4282,13 +4264,13 @@
         <v>5710812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4344,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E003AD0-06E1-4A2C-8EAF-2FC164339D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{579F129B-559D-4124-B56A-53F7A717A233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C1A4BA-1F68-4A64-980A-6DEA2CFB4098}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{966ADD7A-47A7-4D33-9A2F-11FE82299C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -716,220 +716,220 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B0405C-D747-470A-882F-6F6ED230F96F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3192E837-1419-4617-A5F3-37959E185700}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1543,7 @@
         <v>1553</v>
       </c>
       <c r="N5" s="7">
-        <v>1568294</v>
+        <v>1568293</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1594,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1668,7 +1668,7 @@
         <v>1207</v>
       </c>
       <c r="D8" s="7">
-        <v>1231032</v>
+        <v>1231033</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1719,7 +1719,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1927,7 +1927,7 @@
         <v>939</v>
       </c>
       <c r="D13" s="7">
-        <v>967379</v>
+        <v>967378</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1993,7 +1993,7 @@
         <v>2168</v>
       </c>
       <c r="I14" s="7">
-        <v>2216507</v>
+        <v>2216506</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2008,7 +2008,7 @@
         <v>4443</v>
       </c>
       <c r="N14" s="7">
-        <v>4525671</v>
+        <v>4525672</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2029,7 +2029,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2044,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2059,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84A7DF0-B614-4CEA-A99A-335C3D434760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91636B12-F907-4712-9B70-A72DDDDF4D91}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2553,7 +2553,7 @@
         <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>410508</v>
+        <v>410509</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>127</v>
@@ -2655,7 +2655,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2729,7 +2729,7 @@
         <v>1921</v>
       </c>
       <c r="D14" s="7">
-        <v>2059783</v>
+        <v>2059784</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>147</v>
@@ -2780,7 +2780,7 @@
         <v>3198</v>
       </c>
       <c r="D15" s="7">
-        <v>3415094</v>
+        <v>3415095</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C43E14-765F-4552-B490-5087682DB147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E8576A-514F-4FDC-80BE-EF1E2774B709}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,7 +3304,7 @@
         <v>418</v>
       </c>
       <c r="N10" s="7">
-        <v>446252</v>
+        <v>446253</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>194</v>
@@ -3406,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3480,7 +3480,7 @@
         <v>2064</v>
       </c>
       <c r="D14" s="7">
-        <v>2160735</v>
+        <v>2160736</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>215</v>
@@ -3531,7 +3531,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3376350</v>
+        <v>3376351</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9890B-F769-4BB5-8E7D-1BA0FDC8874E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B53082-1CB7-444B-BBE5-A630AD52093F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3715,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="7">
-        <v>107197</v>
+        <v>101523</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3730,7 +3730,7 @@
         <v>238</v>
       </c>
       <c r="I4" s="7">
-        <v>149732</v>
+        <v>134597</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3745,7 +3745,7 @@
         <v>372</v>
       </c>
       <c r="N4" s="7">
-        <v>256929</v>
+        <v>236121</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3766,7 +3766,7 @@
         <v>557</v>
       </c>
       <c r="D5" s="7">
-        <v>434437</v>
+        <v>413415</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -3781,7 +3781,7 @@
         <v>1189</v>
       </c>
       <c r="I5" s="7">
-        <v>686221</v>
+        <v>620911</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -3796,7 +3796,7 @@
         <v>1746</v>
       </c>
       <c r="N5" s="7">
-        <v>1120657</v>
+        <v>1034325</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3817,7 +3817,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>355005</v>
+        <v>342219</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>243</v>
@@ -3885,7 +3885,7 @@
         <v>529</v>
       </c>
       <c r="I7" s="7">
-        <v>529065</v>
+        <v>581688</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>246</v>
@@ -3900,7 +3900,7 @@
         <v>857</v>
       </c>
       <c r="N7" s="7">
-        <v>884071</v>
+        <v>923907</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>249</v>
@@ -3921,7 +3921,7 @@
         <v>1664</v>
       </c>
       <c r="D8" s="7">
-        <v>1807017</v>
+        <v>1948108</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>252</v>
@@ -3936,7 +3936,7 @@
         <v>2392</v>
       </c>
       <c r="I8" s="7">
-        <v>1720455</v>
+        <v>1656135</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>255</v>
@@ -3951,7 +3951,7 @@
         <v>4056</v>
       </c>
       <c r="N8" s="7">
-        <v>3527472</v>
+        <v>3604243</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>258</v>
@@ -3972,7 +3972,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3987,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4002,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,7 +4025,7 @@
         <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>152025</v>
+        <v>149164</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>261</v>
@@ -4040,7 +4040,7 @@
         <v>230</v>
       </c>
       <c r="I10" s="7">
-        <v>170778</v>
+        <v>156111</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>264</v>
@@ -4055,7 +4055,7 @@
         <v>377</v>
       </c>
       <c r="N10" s="7">
-        <v>322802</v>
+        <v>305275</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>267</v>
@@ -4076,7 +4076,7 @@
         <v>534</v>
       </c>
       <c r="D11" s="7">
-        <v>521014</v>
+        <v>497459</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>270</v>
@@ -4091,7 +4091,7 @@
         <v>772</v>
       </c>
       <c r="I11" s="7">
-        <v>541668</v>
+        <v>503010</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>273</v>
@@ -4106,7 +4106,7 @@
         <v>1306</v>
       </c>
       <c r="N11" s="7">
-        <v>1062683</v>
+        <v>1000469</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>276</v>
@@ -4127,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4142,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712446</v>
+        <v>659121</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4157,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1385485</v>
+        <v>1305744</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,7 +4180,7 @@
         <v>609</v>
       </c>
       <c r="D13" s="7">
-        <v>614227</v>
+        <v>592906</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>279</v>
@@ -4195,7 +4195,7 @@
         <v>997</v>
       </c>
       <c r="I13" s="7">
-        <v>849575</v>
+        <v>872396</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>282</v>
@@ -4210,7 +4210,7 @@
         <v>1606</v>
       </c>
       <c r="N13" s="7">
-        <v>1463802</v>
+        <v>1465302</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>285</v>
@@ -4231,7 +4231,7 @@
         <v>2755</v>
       </c>
       <c r="D14" s="7">
-        <v>2762468</v>
+        <v>2858983</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>288</v>
@@ -4246,7 +4246,7 @@
         <v>4353</v>
       </c>
       <c r="I14" s="7">
-        <v>2948344</v>
+        <v>2780056</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>291</v>
@@ -4261,7 +4261,7 @@
         <v>7108</v>
       </c>
       <c r="N14" s="7">
-        <v>5710812</v>
+        <v>5639039</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>294</v>
@@ -4282,7 +4282,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4297,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3797919</v>
+        <v>3652452</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4312,7 @@
         <v>8714</v>
       </c>
       <c r="N15" s="7">
-        <v>7174614</v>
+        <v>7104341</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
